--- a/docs/resultados_vino.xlsx
+++ b/docs/resultados_vino.xlsx
@@ -414,7 +414,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>4221689</v>
+        <v>1906477</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -425,7 +425,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>4221689</v>
+        <v>1906477</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -436,7 +436,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>2533013</v>
+        <v>1143886</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -447,7 +447,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>4221689</v>
+        <v>1906477</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -458,7 +458,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>1688675</v>
+        <v>762590</v>
       </c>
     </row>
   </sheetData>

--- a/docs/resultados_vino.xlsx
+++ b/docs/resultados_vino.xlsx
@@ -414,7 +414,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1906477</v>
+        <v>787177</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -425,7 +425,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>1906477</v>
+        <v>787177</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -436,7 +436,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>1143886</v>
+        <v>472306</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -447,7 +447,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>1906477</v>
+        <v>787177</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -458,7 +458,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>762590</v>
+        <v>314870</v>
       </c>
     </row>
   </sheetData>

--- a/docs/resultados_vino.xlsx
+++ b/docs/resultados_vino.xlsx
@@ -414,7 +414,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>787177</v>
+        <v>3332944</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -425,7 +425,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>787177</v>
+        <v>3332944</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -436,7 +436,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>472306</v>
+        <v>1999766</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -447,7 +447,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>787177</v>
+        <v>3332944</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -458,7 +458,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>314870</v>
+        <v>1333177</v>
       </c>
     </row>
   </sheetData>

--- a/docs/resultados_vino.xlsx
+++ b/docs/resultados_vino.xlsx
@@ -414,7 +414,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>3332944</v>
+        <v>3584255</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -425,7 +425,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>3332944</v>
+        <v>3584255</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -436,7 +436,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>1999766</v>
+        <v>2150553</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -447,7 +447,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>3332944</v>
+        <v>3584255</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -458,7 +458,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>1333177</v>
+        <v>1433702</v>
       </c>
     </row>
   </sheetData>
